--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.todo.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89157E2-8E31-6146-9EDE-82432087B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC4F97C-FBAF-1548-BC9E-CB12AD2C1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52680" yWindow="-3720" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.ambient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modeGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +458,10 @@
   </si>
   <si>
     <t>w.todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,7 +1109,7 @@
   <dimension ref="A2:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E46"/>
+      <selection activeCell="F39" sqref="F39:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1">
       <c r="A3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="22" customFormat="1">
@@ -1159,83 +1159,83 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="22" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1306,7 +1306,7 @@
         <v>65</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1325,7 +1325,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1344,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1363,7 +1363,7 @@
         <v>68</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1382,7 +1382,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1781,10 +1781,10 @@
         <v>26</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1801,10 +1801,10 @@
         <v>82</v>
       </c>
       <c r="E39" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
@@ -1826,10 +1826,10 @@
         <v>83</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G40" s="12">
         <v>4</v>
@@ -1851,10 +1851,10 @@
         <v>84</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G41" s="12">
         <v>8</v>
@@ -1876,10 +1876,10 @@
         <v>85</v>
       </c>
       <c r="E42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G42" s="12">
         <v>12</v>
@@ -1901,10 +1901,10 @@
         <v>86</v>
       </c>
       <c r="E43" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G43" s="12">
         <v>1</v>
@@ -1926,10 +1926,10 @@
         <v>87</v>
       </c>
       <c r="E44" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G44" s="12">
         <v>3</v>
@@ -1951,10 +1951,10 @@
         <v>88</v>
       </c>
       <c r="E45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G45" s="12">
         <v>3</v>
@@ -1976,10 +1976,10 @@
         <v>110</v>
       </c>
       <c r="E46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G46" s="12">
         <v>1</v>
